--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_17-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_17-01.xlsx
@@ -80,103 +80,103 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>FUNGICARE SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>INIZIO WHITENING CREAM</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PENDULIN ANTI-DANDRUFF SHAMPOO</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
     <t>2:1</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>FUNGICARE SOAP 80 GM</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>HAEMOKION 10MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>INIZIO CREAM</t>
-  </si>
-  <si>
-    <t>INIZIO WHITENING CREAM</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PENDULIN ANTI-DANDRUFF SHAMPOO</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
     <t>SOLOVIT VIT E CAP</t>
@@ -1205,7 +1205,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1223,7 +1223,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1275,7 +1275,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1283,7 +1283,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1301,7 +1301,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1327,7 +1327,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1335,7 +1335,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1353,7 +1353,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1379,7 +1379,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1431,7 +1431,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1439,7 +1439,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1457,7 +1457,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1483,7 +1483,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1509,7 +1509,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1535,7 +1535,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1561,7 +1561,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1587,7 +1587,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1613,7 +1613,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1621,7 +1621,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1639,7 +1639,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1665,7 +1665,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1691,7 +1691,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1717,7 +1717,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1725,7 +1725,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1855,7 +1855,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
